--- a/data_year/zb/工业/按行业分大中型工业企业主要经济指标(2000-2002)/营业利润.xlsx
+++ b/data_year/zb/工业/按行业分大中型工业企业主要经济指标(2000-2002)/营业利润.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,387 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>10.77387</v>
-      </c>
-      <c r="C2" t="n">
-        <v>111.15613</v>
-      </c>
-      <c r="D2" t="n">
-        <v>14.44911</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.00047</v>
-      </c>
-      <c r="F2" t="n">
-        <v>4.73805</v>
-      </c>
-      <c r="G2" t="n">
-        <v>71.22354</v>
-      </c>
-      <c r="H2" t="n">
-        <v>48.21349</v>
-      </c>
-      <c r="I2" t="n">
-        <v>80.81661</v>
-      </c>
-      <c r="J2" t="n">
-        <v>22.38912</v>
-      </c>
-      <c r="K2" t="n">
-        <v>21.61034</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2854.8161</v>
-      </c>
-      <c r="M2" t="n">
-        <v>2.76181</v>
-      </c>
-      <c r="N2" t="n">
-        <v>6.27444</v>
-      </c>
-      <c r="O2" t="n">
-        <v>28.50577</v>
-      </c>
-      <c r="P2" t="n">
-        <v>51.00388</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>6.34316</v>
-      </c>
-      <c r="R2" t="n">
-        <v>24.27263</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.85842</v>
-      </c>
-      <c r="T2" t="n">
-        <v>5.48403</v>
-      </c>
-      <c r="U2" t="n">
-        <v>-2.73611</v>
-      </c>
-      <c r="V2" t="n">
-        <v>98.45558</v>
-      </c>
-      <c r="W2" t="n">
-        <v>-18.28411</v>
-      </c>
-      <c r="X2" t="n">
-        <v>-21.42088</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>424.89182</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>275.93549</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>77.10997999999999</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>5.15466</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>-30.32626</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>1194.97214</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>50.56095</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>-0.95547</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>26.06945</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>18.89192</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>26.03702</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0.86724</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>24.99192</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>21.65036</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>82.23327999999999</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>111.86494</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0.8495200000000001</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>15.52308</v>
-      </c>
-      <c r="C3" t="n">
-        <v>174.79837</v>
-      </c>
-      <c r="D3" t="n">
-        <v>19.2028</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.00118</v>
-      </c>
-      <c r="F3" t="n">
-        <v>11.70794</v>
-      </c>
-      <c r="G3" t="n">
-        <v>23.17634</v>
-      </c>
-      <c r="H3" t="n">
-        <v>13.86279</v>
-      </c>
-      <c r="I3" t="n">
-        <v>103.55557</v>
-      </c>
-      <c r="J3" t="n">
-        <v>30.09248</v>
-      </c>
-      <c r="K3" t="n">
-        <v>33.30627</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2996.13706</v>
-      </c>
-      <c r="M3" t="n">
-        <v>4.32371</v>
-      </c>
-      <c r="N3" t="n">
-        <v>7.43734</v>
-      </c>
-      <c r="O3" t="n">
-        <v>38.79676</v>
-      </c>
-      <c r="P3" t="n">
-        <v>41.20368</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>4.7123</v>
-      </c>
-      <c r="R3" t="n">
-        <v>38.05316</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.34959</v>
-      </c>
-      <c r="T3" t="n">
-        <v>3.40292</v>
-      </c>
-      <c r="U3" t="n">
-        <v>8.454980000000001</v>
-      </c>
-      <c r="V3" t="n">
-        <v>161.90927</v>
-      </c>
-      <c r="W3" t="n">
-        <v>-16.3826</v>
-      </c>
-      <c r="X3" t="n">
-        <v>9.890599999999999</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>450.8597</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>304.51251</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>117.70373</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>7.9588</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>-44.79676</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>989.62747</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>32.80991</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>-0.40238</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>27.74916</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>28.18982</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>35.22856</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>-0.63423</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>33.26581</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>42.11005</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>88.71641</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>171.61575</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>1.14142</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>44.45884</v>
-      </c>
-      <c r="C4" t="n">
-        <v>341.28291</v>
-      </c>
-      <c r="D4" t="n">
-        <v>19.52888</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.00011</v>
-      </c>
-      <c r="F4" t="n">
-        <v>7.40366</v>
-      </c>
-      <c r="G4" t="n">
-        <v>116.33856</v>
-      </c>
-      <c r="H4" t="n">
-        <v>21.42549</v>
-      </c>
-      <c r="I4" t="n">
-        <v>131.04102</v>
-      </c>
-      <c r="J4" t="n">
-        <v>30.09561</v>
-      </c>
-      <c r="K4" t="n">
-        <v>41.51832</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3723.86887</v>
-      </c>
-      <c r="M4" t="n">
-        <v>3.99986</v>
-      </c>
-      <c r="N4" t="n">
-        <v>9.163819999999999</v>
-      </c>
-      <c r="O4" t="n">
-        <v>85.75172999999999</v>
-      </c>
-      <c r="P4" t="n">
-        <v>50.83214</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>6.68755</v>
-      </c>
-      <c r="R4" t="n">
-        <v>35.41872</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.33722</v>
-      </c>
-      <c r="T4" t="n">
-        <v>4.35751</v>
-      </c>
-      <c r="U4" t="n">
-        <v>19.01742</v>
-      </c>
-      <c r="V4" t="n">
-        <v>197.84631</v>
-      </c>
-      <c r="W4" t="n">
-        <v>-14.10405</v>
-      </c>
-      <c r="X4" t="n">
-        <v>36.90492</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>457.38985</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>325.64392</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>139.80729</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>10.5449</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>39.02716</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>933.41195</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>47.85973</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>-5.80616</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>56.23138</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>37.42812</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>30.03595</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>1.77932</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>51.65484</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>47.24118</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>96.30911</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>278.26047</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0.60202</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
